--- a/TestData/LV_T2279_TMTI0036293_ApproveEventExpenseFormAsSecondLevelApproverSet1.xlsx
+++ b/TestData/LV_T2279_TMTI0036293_ApproveEventExpenseFormAsSecondLevelApproverSet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5AF54E-4283-40AF-A50A-49BCE38BF577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C85A2D3-13FF-4D87-B17B-2AA6A675FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -191,10 +191,10 @@
     <t>Dimitri Drone</t>
   </si>
   <si>
-    <t>Bingo@1234567</t>
-  </si>
-  <si>
     <t>FVATestOpportunity Admin</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -762,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>38</v>
@@ -818,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>38</v>
@@ -874,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>38</v>
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>38</v>
@@ -986,7 +986,7 @@
         <v>18</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>38</v>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1067,7 +1067,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1078,7 +1078,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1089,11 +1089,11 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{F02B61D7-72B9-4D2E-B915-44297625D2AF}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{6ED0707E-1A3D-41DE-9D1F-0C185E1F4903}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{A88A08DE-BC8D-44F4-B4A3-F3F45BEED893}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{88D13356-CD0F-4958-BE46-AB501B49D616}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{D45C86F9-3A86-447F-9A88-FC4ADCDA713E}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{231CB918-F83F-4617-B02E-DB0243B4B153}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{DF0DBB8C-862D-49E8-9462-6A3EC6EBF8BD}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{7871CE11-05D2-4010-9B4E-5D590A4E3BA6}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{7E48E583-A31E-4D3D-A449-5AEB5AB8F36A}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{BFBA4B09-5F16-49CA-8382-DEDD86265CE9}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{7A1519DD-7B79-48DE-81D2-7D041A1AF37E}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{1E8B7BC1-EAF1-48C4-AF7B-EA5467C230C3}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{D3FB8478-6724-494B-B54D-0D5303E6D17C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1149,7 +1149,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1160,7 +1160,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1171,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1183,10 +1183,10 @@
     <hyperlink ref="A5" r:id="rId2" xr:uid="{49CDF971-88A0-478A-9ABD-0C13B137739B}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{DD33285A-BEC3-43E6-9CF7-C07B547F86A0}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{E884574A-2EFB-4087-B99B-32D65C06622B}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{CE317B36-AFD3-47B8-9712-C8FD0B60611E}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{3F400C4D-CB90-42C3-8827-DD9CFB7EEF17}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{EC448C53-A56A-483F-BFDC-393AA3AD6739}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{0C92C735-4C59-4494-8A27-87675DF9C5C1}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{EAC6C758-3FC6-4850-B067-CDA69A9D42D1}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{53E34E7E-E337-4F6A-B604-0191D4279933}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{82074175-0EBB-4988-8186-1E85DAF85604}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{92389FF4-ECF0-423A-A5BE-244988A95264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
